--- a/pred_ohlcv/54_21/2019-11-14 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-33011.45314889</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-32616.5642267</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-32540.9294267</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-32729.4599267</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-32724.4599267</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-32012.3007267</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-32012.3007267</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-32100.0187267</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-32135.0573267</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-32527.8063267</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-31875.8204267</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-30518.4849267</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-30415.7179267</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-31188.0862267</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-29926.8759267</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-28556.4759267</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-27175.7450267</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-27175.7450267</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-26129.1162267</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-25955.1162267</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-24898.7473267</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-23500.3073267</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>28503.47982368</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>28503.47982368</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>24975.61532368</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>27292.63012368</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>31294.57442368</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>28379.49782368</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>26243.34122368</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>38691.60798371</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>37860.34281712001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>36468.68321712001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>36468.68321712001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>37103.00911712001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>36694.90761712001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>36694.90761712001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>39828.84871712001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>45035.98231712001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>41607.55601712001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>44469.46211712001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>44810.38221712002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>54648.83281712001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>54317.18251712001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>55429.43021712001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>53729.60711712001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>53344.56411712001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>53101.30611712001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>52162.02121712001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>52084.91111712001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>52005.74761712001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>52007.74761712001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>53291.45521712001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>51549.59321712001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>47029.54131712001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>101176.1898069901</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>101169.1755069901</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>101817.6672069901</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>98630.49460699008</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>98162.46270699007</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>98381.50360699008</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>98946.46350699008</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>95839.15987730009</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>122131.8807053501</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>122846.3012053501</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>122464.1461017401</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>122464.1461017401</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>120724.5595017401</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>119204.1915017401</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>120592.2373017401</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>112023.8440471901</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>108401.0085471901</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>106257.1328773101</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>106617.3320773101</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>107491.5808773101</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>106003.2426773101</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>103957.8997773101</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>103152.6732773101</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>100763.4404773101</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>100975.6857773101</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>100976.5726773101</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>105206.4861773101</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>105534.4473773101</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>102307.1486773101</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>102587.3862773101</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>102691.4521773101</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>102552.5664773101</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>103154.4846773101</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>103612.1779773101</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>103926.3569773101</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>103925.5175612601</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>103828.3175612601</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>103598.9269612601</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>104825.4126612601</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>104825.4126612601</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>106175.8305612601</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>105347.2674612601</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>105351.0461612601</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>105069.5591612601</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>106571.9032963601</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>106373.0944963601</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>109117.4869612601</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>109990.5106070301</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-14 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-33011.45314889</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-32616.5642267</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-32540.9294267</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-32729.4599267</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-32724.4599267</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-32012.3007267</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-32012.3007267</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-32100.0187267</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-32135.0573267</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-32527.8063267</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-31875.8204267</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-30417.6849267</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-31804.8357267</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-31137.0596267</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-31137.0596267</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-31212.0825267</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-31338.3549267</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-27175.7450267</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-27175.7450267</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-26129.1162267</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-25955.1162267</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-24898.7473267</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-23500.3073267</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>28503.47982368</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>28503.47982368</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>24975.61532368</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>27292.63012368</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>31294.57442368</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>28379.49782368</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>26243.34122368</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>38691.60798371</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>37860.34281712001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>36468.68321712001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>36468.68321712001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>37103.00911712001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>36694.90761712001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>36694.90761712001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>39828.84871712001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>45035.98231712001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>41607.55601712001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>44469.46211712001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>44810.38221712002</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>54648.83281712001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>54317.18251712001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>55429.43021712001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>53729.60711712001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>53344.56411712001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>53101.30611712001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>52162.02121712001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>52084.91111712001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>52005.74761712001</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>52007.74761712001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>53291.45521712001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>51549.59321712001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>47029.54131712001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>101176.1898069901</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>101169.1755069901</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>101817.6672069901</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>98630.49460699008</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>98162.46270699007</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>98381.50360699008</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>98946.46350699008</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>95839.15987730009</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>122131.8807053501</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>122846.3012053501</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>122464.1461017401</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>122464.1461017401</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>120724.5595017401</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>119204.1915017401</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>120592.2373017401</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>112023.8440471901</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>108401.0085471901</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>106257.1328773101</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>106617.3320773101</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>107491.5808773101</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>106003.2426773101</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>103957.8997773101</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>103152.6732773101</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>100763.4404773101</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>100975.6857773101</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>100976.5726773101</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>105206.4861773101</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>105534.4473773101</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>102307.1486773101</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>102587.3862773101</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>102691.4521773101</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>102552.5664773101</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>103154.4846773101</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>103612.1779773101</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>103926.3569773101</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>103925.5175612601</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>103828.3175612601</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>103598.9269612601</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>104825.4126612601</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>104825.4126612601</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>106175.8305612601</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>105347.2674612601</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>105351.0461612601</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>105069.5591612601</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>106571.9032963601</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>106373.0944963601</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>109117.4869612601</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>109114.6869612601</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>110182.3555612601</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>110168.3555612601</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>110168.3555612601</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>110098.3015612601</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>110257.5100612601</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>108500.3082612601</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>108500.3082612601</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>111208.4406070301</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>110708.4148070301</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>109990.5106070301</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>109832.2493070301</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>108268.8128318501</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
